--- a/Code/Results/Cases/Case_5_127/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_127/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.035306535043515</v>
+        <v>1.065827479255053</v>
       </c>
       <c r="D2">
-        <v>1.052053936231972</v>
+        <v>1.070693648201879</v>
       </c>
       <c r="E2">
-        <v>1.034499807191622</v>
+        <v>1.060651646555676</v>
       </c>
       <c r="F2">
-        <v>1.053499399248734</v>
+        <v>1.078895023530078</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.065094365942786</v>
+        <v>1.057427365903892</v>
       </c>
       <c r="J2">
-        <v>1.056480182005704</v>
+        <v>1.070780602957231</v>
       </c>
       <c r="K2">
-        <v>1.062832757103287</v>
+        <v>1.073392804520508</v>
       </c>
       <c r="L2">
-        <v>1.04549855110098</v>
+        <v>1.063377845125482</v>
       </c>
       <c r="M2">
-        <v>1.064260517115548</v>
+        <v>1.081572497761494</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.042661441298498</v>
+        <v>1.067233380747202</v>
       </c>
       <c r="D3">
-        <v>1.058165652383042</v>
+        <v>1.071871466379217</v>
       </c>
       <c r="E3">
-        <v>1.04090692855046</v>
+        <v>1.061890197493994</v>
       </c>
       <c r="F3">
-        <v>1.060403023176045</v>
+        <v>1.080266698717641</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.068445852609928</v>
+        <v>1.057968143368585</v>
       </c>
       <c r="J3">
-        <v>1.062053015415674</v>
+        <v>1.071840099561327</v>
       </c>
       <c r="K3">
-        <v>1.068104694525189</v>
+        <v>1.074386139827168</v>
       </c>
       <c r="L3">
-        <v>1.051041843023486</v>
+        <v>1.064429793187528</v>
       </c>
       <c r="M3">
-        <v>1.070317247131709</v>
+        <v>1.082760793607816</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.047274973316256</v>
+        <v>1.068141393267369</v>
       </c>
       <c r="D4">
-        <v>1.062002058306438</v>
+        <v>1.072632127350014</v>
       </c>
       <c r="E4">
-        <v>1.04492508902557</v>
+        <v>1.062689604458664</v>
       </c>
       <c r="F4">
-        <v>1.064740255656567</v>
+        <v>1.081153105096139</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.070535772278564</v>
+        <v>1.058315908036102</v>
       </c>
       <c r="J4">
-        <v>1.065542094076396</v>
+        <v>1.072523493457386</v>
       </c>
       <c r="K4">
-        <v>1.071405616192105</v>
+        <v>1.075026851380929</v>
       </c>
       <c r="L4">
-        <v>1.054509935207952</v>
+        <v>1.065107896215758</v>
       </c>
       <c r="M4">
-        <v>1.07411540531498</v>
+        <v>1.083528000873053</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.049181585853353</v>
+        <v>1.068522721800552</v>
       </c>
       <c r="D5">
-        <v>1.063588081919148</v>
+        <v>1.072951563377018</v>
       </c>
       <c r="E5">
-        <v>1.046585392506522</v>
+        <v>1.063025198096772</v>
       </c>
       <c r="F5">
-        <v>1.066534242013408</v>
+        <v>1.081525478796878</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.071396451086629</v>
+        <v>1.058461595563765</v>
       </c>
       <c r="J5">
-        <v>1.066982379442919</v>
+        <v>1.072810277835608</v>
       </c>
       <c r="K5">
-        <v>1.072768274205371</v>
+        <v>1.075295722342552</v>
       </c>
       <c r="L5">
-        <v>1.055940956451447</v>
+        <v>1.065392359337204</v>
       </c>
       <c r="M5">
-        <v>1.075684738168425</v>
+        <v>1.083850133439016</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.049499837558209</v>
+        <v>1.068586725289643</v>
       </c>
       <c r="D6">
-        <v>1.063852852362634</v>
+        <v>1.073005177960183</v>
       </c>
       <c r="E6">
-        <v>1.046862513245535</v>
+        <v>1.063081517948598</v>
       </c>
       <c r="F6">
-        <v>1.066833783979543</v>
+        <v>1.081587986229359</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.071539937175206</v>
+        <v>1.058486027161931</v>
       </c>
       <c r="J6">
-        <v>1.067222694741333</v>
+        <v>1.072858400184985</v>
       </c>
       <c r="K6">
-        <v>1.072995639413326</v>
+        <v>1.075340838708995</v>
       </c>
       <c r="L6">
-        <v>1.056179690564653</v>
+        <v>1.065440086260245</v>
       </c>
       <c r="M6">
-        <v>1.075946671050857</v>
+        <v>1.083904197537684</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.047300576464571</v>
+        <v>1.068146490160673</v>
       </c>
       <c r="D7">
-        <v>1.062023354231274</v>
+        <v>1.072636397022394</v>
       </c>
       <c r="E7">
-        <v>1.044947385700483</v>
+        <v>1.062694090544148</v>
       </c>
       <c r="F7">
-        <v>1.064764340306537</v>
+        <v>1.08115808183132</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.070547341975914</v>
+        <v>1.058317856730912</v>
       </c>
       <c r="J7">
-        <v>1.065561441609052</v>
+        <v>1.072527327498917</v>
       </c>
       <c r="K7">
-        <v>1.071423920789486</v>
+        <v>1.075030445944322</v>
       </c>
       <c r="L7">
-        <v>1.054529160678849</v>
+        <v>1.065111699621175</v>
       </c>
       <c r="M7">
-        <v>1.074136480585401</v>
+        <v>1.083532306794431</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.037823523628067</v>
+        <v>1.066302966413603</v>
       </c>
       <c r="D8">
-        <v>1.054144864292441</v>
+        <v>1.071092004056841</v>
       </c>
       <c r="E8">
-        <v>1.036692588401119</v>
+        <v>1.061070642253741</v>
       </c>
       <c r="F8">
-        <v>1.055860475848955</v>
+        <v>1.079358831204239</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.066243895206751</v>
+        <v>1.05761057213135</v>
       </c>
       <c r="J8">
-        <v>1.058388678844652</v>
+        <v>1.07113911761919</v>
       </c>
       <c r="K8">
-        <v>1.064638151698204</v>
+        <v>1.073728932760774</v>
       </c>
       <c r="L8">
-        <v>1.047397455705951</v>
+        <v>1.063733893080732</v>
       </c>
       <c r="M8">
-        <v>1.066333432128082</v>
+        <v>1.08197444315388</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.019912096693114</v>
+        <v>1.063041109525322</v>
       </c>
       <c r="D9">
-        <v>1.039280549624596</v>
+        <v>1.068359125397494</v>
       </c>
       <c r="E9">
-        <v>1.021087305350952</v>
+        <v>1.058194185078528</v>
       </c>
       <c r="F9">
-        <v>1.039091066699811</v>
+        <v>1.076179175093202</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058011867293104</v>
+        <v>1.056347607726526</v>
       </c>
       <c r="J9">
-        <v>1.044780784261564</v>
+        <v>1.068676042921258</v>
       </c>
       <c r="K9">
-        <v>1.0517669265402</v>
+        <v>1.071419635227625</v>
       </c>
       <c r="L9">
-        <v>1.033847275645447</v>
+        <v>1.06128602267895</v>
       </c>
       <c r="M9">
-        <v>1.051580230393583</v>
+        <v>1.079216023033633</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.007003794457638</v>
+        <v>1.060857132490949</v>
       </c>
       <c r="D10">
-        <v>1.028592133164236</v>
+        <v>1.066529173801318</v>
       </c>
       <c r="E10">
-        <v>1.009843179198963</v>
+        <v>1.05626558031513</v>
       </c>
       <c r="F10">
-        <v>1.027051545703469</v>
+        <v>1.074052876661714</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052015164344605</v>
+        <v>1.055494250801382</v>
       </c>
       <c r="J10">
-        <v>1.034942262534561</v>
+        <v>1.067022308759846</v>
       </c>
       <c r="K10">
-        <v>1.042463649629417</v>
+        <v>1.069869127738022</v>
       </c>
       <c r="L10">
-        <v>1.02403695755922</v>
+        <v>1.059640301342319</v>
       </c>
       <c r="M10">
-        <v>1.040948969918686</v>
+        <v>1.07736780782499</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.001144642585988</v>
+        <v>1.059909116474135</v>
       </c>
       <c r="D11">
-        <v>1.023747897645298</v>
+        <v>1.065734805911137</v>
       </c>
       <c r="E11">
-        <v>1.004741199817836</v>
+        <v>1.055427785017953</v>
       </c>
       <c r="F11">
-        <v>1.021599092829664</v>
+        <v>1.073130532849826</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049278806262511</v>
+        <v>1.055121994917915</v>
       </c>
       <c r="J11">
-        <v>1.03046988049568</v>
+        <v>1.066303375752428</v>
       </c>
       <c r="K11">
-        <v>1.038235441855753</v>
+        <v>1.069195068151976</v>
       </c>
       <c r="L11">
-        <v>1.019574254535468</v>
+        <v>1.058924329826847</v>
       </c>
       <c r="M11">
-        <v>1.036124861952832</v>
+        <v>1.076565233405361</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9989237659796344</v>
+        <v>1.059556621015878</v>
       </c>
       <c r="D12">
-        <v>1.021912971523414</v>
+        <v>1.065439437398487</v>
       </c>
       <c r="E12">
-        <v>1.002807718912059</v>
+        <v>1.055116177805806</v>
       </c>
       <c r="F12">
-        <v>1.019534372733589</v>
+        <v>1.072787679117254</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048239517550021</v>
+        <v>1.054983306023268</v>
       </c>
       <c r="J12">
-        <v>1.028773743906427</v>
+        <v>1.066035896382689</v>
       </c>
       <c r="K12">
-        <v>1.036632059958739</v>
+        <v>1.068944283759382</v>
       </c>
       <c r="L12">
-        <v>1.017881324427391</v>
+        <v>1.058657873758374</v>
       </c>
       <c r="M12">
-        <v>1.034296656103476</v>
+        <v>1.076266771379326</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9994022366796604</v>
+        <v>1.059632248922415</v>
       </c>
       <c r="D13">
-        <v>1.022308232966141</v>
+        <v>1.065502808848506</v>
       </c>
       <c r="E13">
-        <v>1.003224252487378</v>
+        <v>1.055183037410184</v>
       </c>
       <c r="F13">
-        <v>1.019979108010184</v>
+        <v>1.072861234028027</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048463517158028</v>
+        <v>1.055013074170493</v>
       </c>
       <c r="J13">
-        <v>1.029139202817581</v>
+        <v>1.066093291436908</v>
       </c>
       <c r="K13">
-        <v>1.036977526170447</v>
+        <v>1.068998096453126</v>
       </c>
       <c r="L13">
-        <v>1.018246113256593</v>
+        <v>1.058715052789408</v>
       </c>
       <c r="M13">
-        <v>1.034690511330725</v>
+        <v>1.07633080845276</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000961997636156</v>
+        <v>1.059879986485535</v>
       </c>
       <c r="D14">
-        <v>1.02359696692771</v>
+        <v>1.065710396915108</v>
       </c>
       <c r="E14">
-        <v>1.004582181541513</v>
+        <v>1.055402035932365</v>
       </c>
       <c r="F14">
-        <v>1.021429248781377</v>
+        <v>1.073102197681397</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049193376980997</v>
+        <v>1.055110539369009</v>
       </c>
       <c r="J14">
-        <v>1.030330408014839</v>
+        <v>1.06628127475003</v>
       </c>
       <c r="K14">
-        <v>1.03810359332132</v>
+        <v>1.06917434660746</v>
       </c>
       <c r="L14">
-        <v>1.019435055079592</v>
+        <v>1.058902314978352</v>
       </c>
       <c r="M14">
-        <v>1.035974502548048</v>
+        <v>1.076540569623998</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.001916988746684</v>
+        <v>1.060032577799271</v>
       </c>
       <c r="D15">
-        <v>1.024386186464558</v>
+        <v>1.065838258177892</v>
       </c>
       <c r="E15">
-        <v>1.005413653233202</v>
+        <v>1.055536913230305</v>
       </c>
       <c r="F15">
-        <v>1.022317390251725</v>
+        <v>1.073250629438294</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049639974601474</v>
+        <v>1.055170535591387</v>
       </c>
       <c r="J15">
-        <v>1.031059628026908</v>
+        <v>1.066397039546237</v>
       </c>
       <c r="K15">
-        <v>1.038792958506088</v>
+        <v>1.069282885812095</v>
       </c>
       <c r="L15">
-        <v>1.02016282880159</v>
+        <v>1.05901762528717</v>
       </c>
       <c r="M15">
-        <v>1.036760697739187</v>
+        <v>1.076669763800187</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007386634348224</v>
+        <v>1.060919999166878</v>
       </c>
       <c r="D16">
-        <v>1.028908821437933</v>
+        <v>1.0665818509763</v>
       </c>
       <c r="E16">
-        <v>1.010176592224907</v>
+        <v>1.056321124567064</v>
       </c>
       <c r="F16">
-        <v>1.027408078688727</v>
+        <v>1.074114054345925</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052193667634889</v>
+        <v>1.055518898002805</v>
       </c>
       <c r="J16">
-        <v>1.035234360483309</v>
+        <v>1.067069961251117</v>
       </c>
       <c r="K16">
-        <v>1.04273981987546</v>
+        <v>1.069913805879585</v>
       </c>
       <c r="L16">
-        <v>1.024328359070555</v>
+        <v>1.059687746550444</v>
       </c>
       <c r="M16">
-        <v>1.041264219972327</v>
+        <v>1.077421023319369</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.010742716596114</v>
+        <v>1.061476022724457</v>
       </c>
       <c r="D17">
-        <v>1.031685838967065</v>
+        <v>1.067047750662326</v>
       </c>
       <c r="E17">
-        <v>1.013099600001729</v>
+        <v>1.056812312296905</v>
       </c>
       <c r="F17">
-        <v>1.030534954417437</v>
+        <v>1.074655213014783</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053756861683262</v>
+        <v>1.055736678479208</v>
       </c>
       <c r="J17">
-        <v>1.037794236893579</v>
+        <v>1.067491298140653</v>
       </c>
       <c r="K17">
-        <v>1.045160209393637</v>
+        <v>1.070308843691892</v>
       </c>
       <c r="L17">
-        <v>1.026881779149665</v>
+        <v>1.060107190485045</v>
       </c>
       <c r="M17">
-        <v>1.044027970627742</v>
+        <v>1.077891651978344</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.012674530419459</v>
+        <v>1.061800116711255</v>
       </c>
       <c r="D18">
-        <v>1.033285007454863</v>
+        <v>1.06731931080893</v>
       </c>
       <c r="E18">
-        <v>1.014782288736284</v>
+        <v>1.057098554112241</v>
       </c>
       <c r="F18">
-        <v>1.032335981885597</v>
+        <v>1.074970703730836</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054655302952723</v>
+        <v>1.05586344138967</v>
       </c>
       <c r="J18">
-        <v>1.039267114964158</v>
+        <v>1.067736781788537</v>
       </c>
       <c r="K18">
-        <v>1.046552910112204</v>
+        <v>1.070539004433633</v>
       </c>
       <c r="L18">
-        <v>1.02835064746333</v>
+        <v>1.060351521005054</v>
       </c>
       <c r="M18">
-        <v>1.045618959511626</v>
+        <v>1.078165941705858</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.013328977124557</v>
+        <v>1.061910586455743</v>
       </c>
       <c r="D19">
-        <v>1.033826872756158</v>
+        <v>1.067411873553642</v>
       </c>
       <c r="E19">
-        <v>1.015352362156324</v>
+        <v>1.057196111356734</v>
       </c>
       <c r="F19">
-        <v>1.032946312536487</v>
+        <v>1.075078251338502</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054959438260962</v>
+        <v>1.055906619473997</v>
       </c>
       <c r="J19">
-        <v>1.039765977742121</v>
+        <v>1.067820438919537</v>
       </c>
       <c r="K19">
-        <v>1.04702462970233</v>
+        <v>1.070617439697862</v>
       </c>
       <c r="L19">
-        <v>1.028848101899794</v>
+        <v>1.060434776649931</v>
       </c>
       <c r="M19">
-        <v>1.046157962657538</v>
+        <v>1.078259430303852</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.010385329494883</v>
+        <v>1.061416390009302</v>
       </c>
       <c r="D20">
-        <v>1.031390045048137</v>
+        <v>1.066997783864491</v>
       </c>
       <c r="E20">
-        <v>1.012788313329034</v>
+        <v>1.056759639416677</v>
       </c>
       <c r="F20">
-        <v>1.030201855011406</v>
+        <v>1.074597168205324</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053590538768592</v>
+        <v>1.055713340107912</v>
       </c>
       <c r="J20">
-        <v>1.037521701864887</v>
+        <v>1.06744612117609</v>
       </c>
       <c r="K20">
-        <v>1.044902516315234</v>
+        <v>1.070266486616895</v>
       </c>
       <c r="L20">
-        <v>1.026609962110089</v>
+        <v>1.060062221687684</v>
       </c>
       <c r="M20">
-        <v>1.043733646176431</v>
+        <v>1.077841180783235</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.000503950924023</v>
+        <v>1.059807043957852</v>
       </c>
       <c r="D21">
-        <v>1.023218475546911</v>
+        <v>1.065649275872283</v>
       </c>
       <c r="E21">
-        <v>1.004183393840778</v>
+        <v>1.05533755778072</v>
       </c>
       <c r="F21">
-        <v>1.021003337510192</v>
+        <v>1.073031246967474</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048979099600442</v>
+        <v>1.05508184982518</v>
       </c>
       <c r="J21">
-        <v>1.029980617256967</v>
+        <v>1.066225930429374</v>
       </c>
       <c r="K21">
-        <v>1.037772925611017</v>
+        <v>1.069122456659642</v>
       </c>
       <c r="L21">
-        <v>1.019085941624178</v>
+        <v>1.058847185132018</v>
       </c>
       <c r="M21">
-        <v>1.035597429199884</v>
+        <v>1.076478809908426</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9940311155298754</v>
+        <v>1.058793096486481</v>
       </c>
       <c r="D22">
-        <v>1.017873081879518</v>
+        <v>1.064799648048384</v>
       </c>
       <c r="E22">
-        <v>0.9985490886662385</v>
+        <v>1.05444104685177</v>
       </c>
       <c r="F22">
-        <v>1.014989605367878</v>
+        <v>1.072045215858027</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04594617594426</v>
+        <v>1.054682395251956</v>
       </c>
       <c r="J22">
-        <v>1.025035542940275</v>
+        <v>1.065456224251665</v>
       </c>
       <c r="K22">
-        <v>1.033098594369211</v>
+        <v>1.06840079225611</v>
       </c>
       <c r="L22">
-        <v>1.014149343293381</v>
+        <v>1.058080275476423</v>
       </c>
       <c r="M22">
-        <v>1.030269851163074</v>
+        <v>1.075620203963097</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9974886193135371</v>
+        <v>1.059330810008865</v>
       </c>
       <c r="D23">
-        <v>1.020727603115685</v>
+        <v>1.065250221511544</v>
       </c>
       <c r="E23">
-        <v>1.001558417506632</v>
+        <v>1.054916533516166</v>
       </c>
       <c r="F23">
-        <v>1.018200718778437</v>
+        <v>1.072568071834036</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047567343355753</v>
+        <v>1.054894383552068</v>
       </c>
       <c r="J23">
-        <v>1.02767744436429</v>
+        <v>1.065864501531899</v>
       </c>
       <c r="K23">
-        <v>1.035595758509315</v>
+        <v>1.068783586647511</v>
       </c>
       <c r="L23">
-        <v>1.016786967625411</v>
+        <v>1.058487112495504</v>
       </c>
       <c r="M23">
-        <v>1.033115369405328</v>
+        <v>1.076075561875339</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C24">
-        <v>1.010546896566484</v>
+        <v>1.061443336162337</v>
       </c>
       <c r="D24">
-        <v>1.031523765076884</v>
+        <v>1.067020362300863</v>
       </c>
       <c r="E24">
-        <v>1.012929038895728</v>
+        <v>1.056783440826583</v>
       </c>
       <c r="F24">
-        <v>1.03035243857645</v>
+        <v>1.074623396644631</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053665734029464</v>
+        <v>1.055723886531508</v>
       </c>
       <c r="J24">
-        <v>1.037644911082875</v>
+        <v>1.067466535551781</v>
       </c>
       <c r="K24">
-        <v>1.045019015453272</v>
+        <v>1.070285626753653</v>
       </c>
       <c r="L24">
-        <v>1.026732847652724</v>
+        <v>1.060082542152965</v>
       </c>
       <c r="M24">
-        <v>1.043866703575003</v>
+        <v>1.07786398722384</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.024700845911154</v>
+        <v>1.063886002974116</v>
       </c>
       <c r="D25">
-        <v>1.043251050222644</v>
+        <v>1.069067031703058</v>
       </c>
       <c r="E25">
-        <v>1.025259489838907</v>
+        <v>1.05893972253251</v>
       </c>
       <c r="F25">
-        <v>1.043567158556891</v>
+        <v>1.077002315078479</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060223878837931</v>
+        <v>1.056676105916165</v>
       </c>
       <c r="J25">
-        <v>1.048424593735394</v>
+        <v>1.069314841072511</v>
       </c>
       <c r="K25">
-        <v>1.055213101496365</v>
+        <v>1.072018555750558</v>
       </c>
       <c r="L25">
-        <v>1.03747794277747</v>
+        <v>1.06192126291235</v>
       </c>
       <c r="M25">
-        <v>1.055524804649637</v>
+        <v>1.079930748593194</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_127/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_127/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.065827479255053</v>
+        <v>1.035306535043513</v>
       </c>
       <c r="D2">
-        <v>1.070693648201879</v>
+        <v>1.052053936231971</v>
       </c>
       <c r="E2">
-        <v>1.060651646555676</v>
+        <v>1.03449980719162</v>
       </c>
       <c r="F2">
-        <v>1.078895023530078</v>
+        <v>1.053499399248732</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057427365903892</v>
+        <v>1.065094365942785</v>
       </c>
       <c r="J2">
-        <v>1.070780602957231</v>
+        <v>1.056480182005703</v>
       </c>
       <c r="K2">
-        <v>1.073392804520508</v>
+        <v>1.062832757103285</v>
       </c>
       <c r="L2">
-        <v>1.063377845125482</v>
+        <v>1.045498551100978</v>
       </c>
       <c r="M2">
-        <v>1.081572497761494</v>
+        <v>1.064260517115546</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.067233380747202</v>
+        <v>1.042661441298498</v>
       </c>
       <c r="D3">
-        <v>1.071871466379217</v>
+        <v>1.058165652383042</v>
       </c>
       <c r="E3">
-        <v>1.061890197493994</v>
+        <v>1.04090692855046</v>
       </c>
       <c r="F3">
-        <v>1.080266698717641</v>
+        <v>1.060403023176045</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057968143368585</v>
+        <v>1.068445852609928</v>
       </c>
       <c r="J3">
-        <v>1.071840099561327</v>
+        <v>1.062053015415674</v>
       </c>
       <c r="K3">
-        <v>1.074386139827168</v>
+        <v>1.068104694525189</v>
       </c>
       <c r="L3">
-        <v>1.064429793187528</v>
+        <v>1.051041843023485</v>
       </c>
       <c r="M3">
-        <v>1.082760793607816</v>
+        <v>1.07031724713171</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.068141393267369</v>
+        <v>1.047274973316256</v>
       </c>
       <c r="D4">
-        <v>1.072632127350014</v>
+        <v>1.062002058306438</v>
       </c>
       <c r="E4">
-        <v>1.062689604458664</v>
+        <v>1.04492508902557</v>
       </c>
       <c r="F4">
-        <v>1.081153105096139</v>
+        <v>1.064740255656567</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058315908036102</v>
+        <v>1.070535772278564</v>
       </c>
       <c r="J4">
-        <v>1.072523493457386</v>
+        <v>1.065542094076395</v>
       </c>
       <c r="K4">
-        <v>1.075026851380929</v>
+        <v>1.071405616192105</v>
       </c>
       <c r="L4">
-        <v>1.065107896215758</v>
+        <v>1.054509935207951</v>
       </c>
       <c r="M4">
-        <v>1.083528000873053</v>
+        <v>1.07411540531498</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.068522721800552</v>
+        <v>1.049181585853353</v>
       </c>
       <c r="D5">
-        <v>1.072951563377018</v>
+        <v>1.063588081919148</v>
       </c>
       <c r="E5">
-        <v>1.063025198096772</v>
+        <v>1.046585392506522</v>
       </c>
       <c r="F5">
-        <v>1.081525478796878</v>
+        <v>1.066534242013408</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058461595563765</v>
+        <v>1.07139645108663</v>
       </c>
       <c r="J5">
-        <v>1.072810277835608</v>
+        <v>1.066982379442919</v>
       </c>
       <c r="K5">
-        <v>1.075295722342552</v>
+        <v>1.072768274205372</v>
       </c>
       <c r="L5">
-        <v>1.065392359337204</v>
+        <v>1.055940956451447</v>
       </c>
       <c r="M5">
-        <v>1.083850133439016</v>
+        <v>1.075684738168425</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.068586725289643</v>
+        <v>1.049499837558208</v>
       </c>
       <c r="D6">
-        <v>1.073005177960183</v>
+        <v>1.063852852362633</v>
       </c>
       <c r="E6">
-        <v>1.063081517948598</v>
+        <v>1.046862513245533</v>
       </c>
       <c r="F6">
-        <v>1.081587986229359</v>
+        <v>1.066833783979541</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058486027161931</v>
+        <v>1.071539937175205</v>
       </c>
       <c r="J6">
-        <v>1.072858400184985</v>
+        <v>1.067222694741332</v>
       </c>
       <c r="K6">
-        <v>1.075340838708995</v>
+        <v>1.072995639413325</v>
       </c>
       <c r="L6">
-        <v>1.065440086260245</v>
+        <v>1.056179690564652</v>
       </c>
       <c r="M6">
-        <v>1.083904197537684</v>
+        <v>1.075946671050856</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.068146490160673</v>
+        <v>1.047300576464569</v>
       </c>
       <c r="D7">
-        <v>1.072636397022394</v>
+        <v>1.062023354231273</v>
       </c>
       <c r="E7">
-        <v>1.062694090544148</v>
+        <v>1.044947385700481</v>
       </c>
       <c r="F7">
-        <v>1.08115808183132</v>
+        <v>1.064764340306535</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058317856730912</v>
+        <v>1.070547341975913</v>
       </c>
       <c r="J7">
-        <v>1.072527327498917</v>
+        <v>1.06556144160905</v>
       </c>
       <c r="K7">
-        <v>1.075030445944322</v>
+        <v>1.071423920789485</v>
       </c>
       <c r="L7">
-        <v>1.065111699621175</v>
+        <v>1.054529160678847</v>
       </c>
       <c r="M7">
-        <v>1.083532306794431</v>
+        <v>1.074136480585399</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.066302966413603</v>
+        <v>1.037823523628066</v>
       </c>
       <c r="D8">
-        <v>1.071092004056841</v>
+        <v>1.05414486429244</v>
       </c>
       <c r="E8">
-        <v>1.061070642253741</v>
+        <v>1.036692588401118</v>
       </c>
       <c r="F8">
-        <v>1.079358831204239</v>
+        <v>1.055860475848954</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05761057213135</v>
+        <v>1.066243895206751</v>
       </c>
       <c r="J8">
-        <v>1.07113911761919</v>
+        <v>1.058388678844651</v>
       </c>
       <c r="K8">
-        <v>1.073728932760774</v>
+        <v>1.064638151698203</v>
       </c>
       <c r="L8">
-        <v>1.063733893080732</v>
+        <v>1.04739745570595</v>
       </c>
       <c r="M8">
-        <v>1.08197444315388</v>
+        <v>1.066333432128082</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.063041109525322</v>
+        <v>1.019912096693116</v>
       </c>
       <c r="D9">
-        <v>1.068359125397494</v>
+        <v>1.039280549624598</v>
       </c>
       <c r="E9">
-        <v>1.058194185078528</v>
+        <v>1.021087305350953</v>
       </c>
       <c r="F9">
-        <v>1.076179175093202</v>
+        <v>1.039091066699813</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056347607726526</v>
+        <v>1.058011867293105</v>
       </c>
       <c r="J9">
-        <v>1.068676042921258</v>
+        <v>1.044780784261565</v>
       </c>
       <c r="K9">
-        <v>1.071419635227625</v>
+        <v>1.051766926540201</v>
       </c>
       <c r="L9">
-        <v>1.06128602267895</v>
+        <v>1.033847275645449</v>
       </c>
       <c r="M9">
-        <v>1.079216023033633</v>
+        <v>1.051580230393584</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.060857132490949</v>
+        <v>1.007003794457635</v>
       </c>
       <c r="D10">
-        <v>1.066529173801318</v>
+        <v>1.028592133164234</v>
       </c>
       <c r="E10">
-        <v>1.05626558031513</v>
+        <v>1.00984317919896</v>
       </c>
       <c r="F10">
-        <v>1.074052876661714</v>
+        <v>1.027051545703467</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055494250801382</v>
+        <v>1.052015164344603</v>
       </c>
       <c r="J10">
-        <v>1.067022308759846</v>
+        <v>1.034942262534559</v>
       </c>
       <c r="K10">
-        <v>1.069869127738022</v>
+        <v>1.042463649629416</v>
       </c>
       <c r="L10">
-        <v>1.059640301342319</v>
+        <v>1.024036957559217</v>
       </c>
       <c r="M10">
-        <v>1.07736780782499</v>
+        <v>1.040948969918684</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.059909116474135</v>
+        <v>1.001144642585989</v>
       </c>
       <c r="D11">
-        <v>1.065734805911137</v>
+        <v>1.023747897645299</v>
       </c>
       <c r="E11">
-        <v>1.055427785017953</v>
+        <v>1.004741199817837</v>
       </c>
       <c r="F11">
-        <v>1.073130532849826</v>
+        <v>1.021599092829665</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055121994917915</v>
+        <v>1.049278806262511</v>
       </c>
       <c r="J11">
-        <v>1.066303375752428</v>
+        <v>1.03046988049568</v>
       </c>
       <c r="K11">
-        <v>1.069195068151976</v>
+        <v>1.038235441855754</v>
       </c>
       <c r="L11">
-        <v>1.058924329826847</v>
+        <v>1.019574254535469</v>
       </c>
       <c r="M11">
-        <v>1.076565233405361</v>
+        <v>1.036124861952833</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.059556621015878</v>
+        <v>0.9989237659796361</v>
       </c>
       <c r="D12">
-        <v>1.065439437398487</v>
+        <v>1.021912971523415</v>
       </c>
       <c r="E12">
-        <v>1.055116177805806</v>
+        <v>1.002807718912061</v>
       </c>
       <c r="F12">
-        <v>1.072787679117254</v>
+        <v>1.019534372733591</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054983306023268</v>
+        <v>1.048239517550022</v>
       </c>
       <c r="J12">
-        <v>1.066035896382689</v>
+        <v>1.028773743906429</v>
       </c>
       <c r="K12">
-        <v>1.068944283759382</v>
+        <v>1.03663205995874</v>
       </c>
       <c r="L12">
-        <v>1.058657873758374</v>
+        <v>1.017881324427393</v>
       </c>
       <c r="M12">
-        <v>1.076266771379326</v>
+        <v>1.034296656103478</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.059632248922415</v>
+        <v>0.9994022366796588</v>
       </c>
       <c r="D13">
-        <v>1.065502808848506</v>
+        <v>1.022308232966139</v>
       </c>
       <c r="E13">
-        <v>1.055183037410184</v>
+        <v>1.003224252487376</v>
       </c>
       <c r="F13">
-        <v>1.072861234028027</v>
+        <v>1.019979108010182</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055013074170493</v>
+        <v>1.048463517158027</v>
       </c>
       <c r="J13">
-        <v>1.066093291436908</v>
+        <v>1.029139202817579</v>
       </c>
       <c r="K13">
-        <v>1.068998096453126</v>
+        <v>1.036977526170445</v>
       </c>
       <c r="L13">
-        <v>1.058715052789408</v>
+        <v>1.018246113256592</v>
       </c>
       <c r="M13">
-        <v>1.07633080845276</v>
+        <v>1.034690511330723</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.059879986485535</v>
+        <v>1.000961997636154</v>
       </c>
       <c r="D14">
-        <v>1.065710396915108</v>
+        <v>1.023596966927709</v>
       </c>
       <c r="E14">
-        <v>1.055402035932365</v>
+        <v>1.004582181541511</v>
       </c>
       <c r="F14">
-        <v>1.073102197681397</v>
+        <v>1.021429248781375</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055110539369009</v>
+        <v>1.049193376980996</v>
       </c>
       <c r="J14">
-        <v>1.06628127475003</v>
+        <v>1.030330408014838</v>
       </c>
       <c r="K14">
-        <v>1.06917434660746</v>
+        <v>1.038103593321319</v>
       </c>
       <c r="L14">
-        <v>1.058902314978352</v>
+        <v>1.01943505507959</v>
       </c>
       <c r="M14">
-        <v>1.076540569623998</v>
+        <v>1.035974502548047</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.060032577799271</v>
+        <v>1.001916988746684</v>
       </c>
       <c r="D15">
-        <v>1.065838258177892</v>
+        <v>1.024386186464558</v>
       </c>
       <c r="E15">
-        <v>1.055536913230305</v>
+        <v>1.005413653233202</v>
       </c>
       <c r="F15">
-        <v>1.073250629438294</v>
+        <v>1.022317390251725</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055170535591387</v>
+        <v>1.049639974601474</v>
       </c>
       <c r="J15">
-        <v>1.066397039546237</v>
+        <v>1.031059628026908</v>
       </c>
       <c r="K15">
-        <v>1.069282885812095</v>
+        <v>1.038792958506088</v>
       </c>
       <c r="L15">
-        <v>1.05901762528717</v>
+        <v>1.02016282880159</v>
       </c>
       <c r="M15">
-        <v>1.076669763800187</v>
+        <v>1.036760697739187</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.060919999166878</v>
+        <v>1.007386634348225</v>
       </c>
       <c r="D16">
-        <v>1.0665818509763</v>
+        <v>1.028908821437935</v>
       </c>
       <c r="E16">
-        <v>1.056321124567064</v>
+        <v>1.010176592224909</v>
       </c>
       <c r="F16">
-        <v>1.074114054345925</v>
+        <v>1.027408078688729</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055518898002805</v>
+        <v>1.05219366763489</v>
       </c>
       <c r="J16">
-        <v>1.067069961251117</v>
+        <v>1.035234360483311</v>
       </c>
       <c r="K16">
-        <v>1.069913805879585</v>
+        <v>1.042739819875462</v>
       </c>
       <c r="L16">
-        <v>1.059687746550444</v>
+        <v>1.024328359070557</v>
       </c>
       <c r="M16">
-        <v>1.077421023319369</v>
+        <v>1.041264219972329</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.061476022724457</v>
+        <v>1.010742716596113</v>
       </c>
       <c r="D17">
-        <v>1.067047750662326</v>
+        <v>1.031685838967064</v>
       </c>
       <c r="E17">
-        <v>1.056812312296905</v>
+        <v>1.013099600001728</v>
       </c>
       <c r="F17">
-        <v>1.074655213014783</v>
+        <v>1.030534954417435</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055736678479208</v>
+        <v>1.053756861683262</v>
       </c>
       <c r="J17">
-        <v>1.067491298140653</v>
+        <v>1.037794236893578</v>
       </c>
       <c r="K17">
-        <v>1.070308843691892</v>
+        <v>1.045160209393636</v>
       </c>
       <c r="L17">
-        <v>1.060107190485045</v>
+        <v>1.026881779149664</v>
       </c>
       <c r="M17">
-        <v>1.077891651978344</v>
+        <v>1.044027970627741</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.061800116711255</v>
+        <v>1.012674530419458</v>
       </c>
       <c r="D18">
-        <v>1.06731931080893</v>
+        <v>1.033285007454861</v>
       </c>
       <c r="E18">
-        <v>1.057098554112241</v>
+        <v>1.014782288736283</v>
       </c>
       <c r="F18">
-        <v>1.074970703730836</v>
+        <v>1.032335981885595</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05586344138967</v>
+        <v>1.054655302952723</v>
       </c>
       <c r="J18">
-        <v>1.067736781788537</v>
+        <v>1.039267114964157</v>
       </c>
       <c r="K18">
-        <v>1.070539004433633</v>
+        <v>1.046552910112202</v>
       </c>
       <c r="L18">
-        <v>1.060351521005054</v>
+        <v>1.028350647463329</v>
       </c>
       <c r="M18">
-        <v>1.078165941705858</v>
+        <v>1.045618959511625</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.061910586455743</v>
+        <v>1.013328977124556</v>
       </c>
       <c r="D19">
-        <v>1.067411873553642</v>
+        <v>1.033826872756157</v>
       </c>
       <c r="E19">
-        <v>1.057196111356734</v>
+        <v>1.015352362156323</v>
       </c>
       <c r="F19">
-        <v>1.075078251338502</v>
+        <v>1.032946312536486</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055906619473997</v>
+        <v>1.054959438260961</v>
       </c>
       <c r="J19">
-        <v>1.067820438919537</v>
+        <v>1.039765977742121</v>
       </c>
       <c r="K19">
-        <v>1.070617439697862</v>
+        <v>1.04702462970233</v>
       </c>
       <c r="L19">
-        <v>1.060434776649931</v>
+        <v>1.028848101899793</v>
       </c>
       <c r="M19">
-        <v>1.078259430303852</v>
+        <v>1.046157962657537</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.061416390009302</v>
+        <v>1.010385329494882</v>
       </c>
       <c r="D20">
-        <v>1.066997783864491</v>
+        <v>1.031390045048136</v>
       </c>
       <c r="E20">
-        <v>1.056759639416677</v>
+        <v>1.012788313329033</v>
       </c>
       <c r="F20">
-        <v>1.074597168205324</v>
+        <v>1.030201855011405</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055713340107912</v>
+        <v>1.053590538768592</v>
       </c>
       <c r="J20">
-        <v>1.06744612117609</v>
+        <v>1.037521701864886</v>
       </c>
       <c r="K20">
-        <v>1.070266486616895</v>
+        <v>1.044902516315233</v>
       </c>
       <c r="L20">
-        <v>1.060062221687684</v>
+        <v>1.026609962110089</v>
       </c>
       <c r="M20">
-        <v>1.077841180783235</v>
+        <v>1.04373364617643</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.059807043957852</v>
+        <v>1.000503950924023</v>
       </c>
       <c r="D21">
-        <v>1.065649275872283</v>
+        <v>1.023218475546911</v>
       </c>
       <c r="E21">
-        <v>1.05533755778072</v>
+        <v>1.004183393840778</v>
       </c>
       <c r="F21">
-        <v>1.073031246967474</v>
+        <v>1.021003337510192</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05508184982518</v>
+        <v>1.048979099600443</v>
       </c>
       <c r="J21">
-        <v>1.066225930429374</v>
+        <v>1.029980617256967</v>
       </c>
       <c r="K21">
-        <v>1.069122456659642</v>
+        <v>1.037772925611017</v>
       </c>
       <c r="L21">
-        <v>1.058847185132018</v>
+        <v>1.019085941624178</v>
       </c>
       <c r="M21">
-        <v>1.076478809908426</v>
+        <v>1.035597429199885</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.058793096486481</v>
+        <v>0.9940311155298739</v>
       </c>
       <c r="D22">
-        <v>1.064799648048384</v>
+        <v>1.017873081879516</v>
       </c>
       <c r="E22">
-        <v>1.05444104685177</v>
+        <v>0.9985490886662369</v>
       </c>
       <c r="F22">
-        <v>1.072045215858027</v>
+        <v>1.014989605367876</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054682395251956</v>
+        <v>1.045946175944259</v>
       </c>
       <c r="J22">
-        <v>1.065456224251665</v>
+        <v>1.025035542940274</v>
       </c>
       <c r="K22">
-        <v>1.06840079225611</v>
+        <v>1.03309859436921</v>
       </c>
       <c r="L22">
-        <v>1.058080275476423</v>
+        <v>1.014149343293379</v>
       </c>
       <c r="M22">
-        <v>1.075620203963097</v>
+        <v>1.030269851163072</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.059330810008865</v>
+        <v>0.9974886193135367</v>
       </c>
       <c r="D23">
-        <v>1.065250221511544</v>
+        <v>1.020727603115684</v>
       </c>
       <c r="E23">
-        <v>1.054916533516166</v>
+        <v>1.001558417506631</v>
       </c>
       <c r="F23">
-        <v>1.072568071834036</v>
+        <v>1.018200718778437</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054894383552068</v>
+        <v>1.047567343355754</v>
       </c>
       <c r="J23">
-        <v>1.065864501531899</v>
+        <v>1.02767744436429</v>
       </c>
       <c r="K23">
-        <v>1.068783586647511</v>
+        <v>1.035595758509315</v>
       </c>
       <c r="L23">
-        <v>1.058487112495504</v>
+        <v>1.01678696762541</v>
       </c>
       <c r="M23">
-        <v>1.076075561875339</v>
+        <v>1.033115369405328</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.061443336162337</v>
+        <v>1.010546896566482</v>
       </c>
       <c r="D24">
-        <v>1.067020362300863</v>
+        <v>1.031523765076882</v>
       </c>
       <c r="E24">
-        <v>1.056783440826583</v>
+        <v>1.012929038895726</v>
       </c>
       <c r="F24">
-        <v>1.074623396644631</v>
+        <v>1.030352438576449</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055723886531508</v>
+        <v>1.053665734029463</v>
       </c>
       <c r="J24">
-        <v>1.067466535551781</v>
+        <v>1.037644911082873</v>
       </c>
       <c r="K24">
-        <v>1.070285626753653</v>
+        <v>1.045019015453271</v>
       </c>
       <c r="L24">
-        <v>1.060082542152965</v>
+        <v>1.026732847652722</v>
       </c>
       <c r="M24">
-        <v>1.07786398722384</v>
+        <v>1.043866703575001</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.063886002974116</v>
+        <v>1.024700845911152</v>
       </c>
       <c r="D25">
-        <v>1.069067031703058</v>
+        <v>1.043251050222642</v>
       </c>
       <c r="E25">
-        <v>1.05893972253251</v>
+        <v>1.025259489838905</v>
       </c>
       <c r="F25">
-        <v>1.077002315078479</v>
+        <v>1.043567158556888</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056676105916165</v>
+        <v>1.06022387883793</v>
       </c>
       <c r="J25">
-        <v>1.069314841072511</v>
+        <v>1.048424593735392</v>
       </c>
       <c r="K25">
-        <v>1.072018555750558</v>
+        <v>1.055213101496363</v>
       </c>
       <c r="L25">
-        <v>1.06192126291235</v>
+        <v>1.037477942777469</v>
       </c>
       <c r="M25">
-        <v>1.079930748593194</v>
+        <v>1.055524804649635</v>
       </c>
     </row>
   </sheetData>
